--- a/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_6.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/two_local_random_cz/Rb2Re4/cz_2q_twolocalrandom_indep_qiskit_6.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01006579399108887</v>
+        <v>0.000431060791015625</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001884222030639648</v>
+        <v>0.0004479885101318359</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004408359527587891</v>
+        <v>0.005738973617553711</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 1), (1, 0), (1, 1), (1, 2), (2, 1), (0, 0)]</t>
+          <t>[[0, 1], [1, 0], [1, 1], [1, 2], [2, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[(0, 0), (1, 2), (0, 1), (0, 2), (1, 0), (1, 1)]</t>
+          <t>[[0, 0], [1, 2], [0, 1], [0, 2], [1, 0], [1, 1]]</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[(1, 1), (0, 2), (1, 2), (0, 1), (0, 0), (1, 0)]</t>
+          <t>[[1, 1], [0, 2], [1, 2], [0, 1], [0, 0], [1, 0]]</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[(1, 0), (1, 1), (0, 0), (1, 2), (0, 1), (0, 2)]</t>
+          <t>[[1, 0], [1, 1], [0, 0], [1, 2], [0, 1], [0, 2]]</t>
         </is>
       </c>
     </row>
@@ -986,110 +986,120 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>15</v>
+        <v>0.9991256798816158</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01838779449462891</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.01466202735900879</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
